--- a/classfiers/bloated/svm/smote/bloated-svm-linear-results.xlsx
+++ b/classfiers/bloated/svm/smote/bloated-svm-linear-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7971014492753623</v>
+        <v>0.8137651821862348</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8870967741935484</v>
+        <v>0.8973214285714286</v>
       </c>
       <c r="E2" t="n">
-        <v>0.943099173553719</v>
+        <v>0.9359669315115962</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9439655172413793</v>
+        <v>0.9380952380952381</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9954545454545455</v>
+        <v>0.985</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9690265486725664</v>
+        <v>0.9609756097560974</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9879752066115701</v>
+        <v>0.9862935323383084</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9688888888888889</v>
+        <v>0.9704433497536946</v>
       </c>
       <c r="C4" t="n">
-        <v>0.990909090909091</v>
+        <v>0.985</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9797752808988764</v>
+        <v>0.977667493796526</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9968181818181818</v>
+        <v>0.9978855721393035</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9908675799086758</v>
+        <v>0.9850746268656716</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9954128440366972</v>
+        <v>0.9924812030075187</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999004975124378</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="C6" t="n">
-        <v>0.990909090909091</v>
+        <v>0.9900497512437811</v>
       </c>
       <c r="D6" t="n">
-        <v>0.995433789954338</v>
+        <v>0.9925187032418954</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999584889995849</v>
+        <v>0.9997761194029851</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9419911710811262</v>
+        <v>0.9434607540070334</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9936280614362806</v>
+        <v>0.9890248756218905</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9653490475512052</v>
+        <v>0.9641928876746932</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9855702101966113</v>
+        <v>0.9839645305809261</v>
       </c>
     </row>
   </sheetData>
